--- a/results/xlsx_comma/United_NNA.xlsx
+++ b/results/xlsx_comma/United_NNA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_Diss_GIT_Scripts\PointPatternAnalysis\outputs\xlsx_comma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_Diss_GIT_Scripts\PointPatternAnalysis\results\xlsx_comma\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -240,7 +240,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -709,7 +708,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -817,7 +815,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1286,7 +1283,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1394,7 +1390,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1863,7 +1858,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1971,7 +1965,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2440,7 +2433,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8254,7 +8246,7 @@
   <dimension ref="A1:T76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
